--- a/Reports/day4/tp4_3.xlsx
+++ b/Reports/day4/tp4_3.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sol en groupe" sheetId="5" r:id="rId3"/>
+    <sheet name="Solution" sheetId="4" r:id="rId4"/>
+    <sheet name="Example" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
-  <si>
-    <t>                   A                                 B                              C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>Region</t>
   </si>
@@ -168,12 +168,123 @@
   <si>
     <t>Variance/Std Dev</t>
   </si>
+  <si>
+    <t>Arbre</t>
+  </si>
+  <si>
+    <t>Hauteur</t>
+  </si>
+  <si>
+    <t>Âge</t>
+  </si>
+  <si>
+    <t>Rendement</t>
+  </si>
+  <si>
+    <t>Bénéfice</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>&lt;16</t>
+  </si>
+  <si>
+    <t>Pomme</t>
+  </si>
+  <si>
+    <t>Poire</t>
+  </si>
+  <si>
+    <t>Cerise</t>
+  </si>
+  <si>
+    <t>Formule</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>=BDMOYENNE(A4:E10, "Rendement", A1:B2)</t>
+  </si>
+  <si>
+    <t>Rendement moyen des pommiers dont la taille est supérieure à 10.</t>
+  </si>
+  <si>
+    <t>=BDMOYENNE(A4:E10, 3, A4:E10)</t>
+  </si>
+  <si>
+    <t>Âge moyen de tous les arbres figurant dans la base de données.</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>860 000</t>
+  </si>
+  <si>
+    <t>770 000</t>
+  </si>
+  <si>
+    <t>350 000</t>
+  </si>
+  <si>
+    <t>150 000</t>
+  </si>
+  <si>
+    <t>590 000</t>
+  </si>
+  <si>
+    <t>230 000</t>
+  </si>
+  <si>
+    <t>760 000</t>
+  </si>
+  <si>
+    <t>250 000</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>430 000</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) </t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>ecart type</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +305,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF393939"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF363636"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +364,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDADADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,11 +391,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,11 +464,297 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -254,6 +765,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Region" dataDxfId="9"/>
+    <tableColumn id="2" name="Name" dataDxfId="8"/>
+    <tableColumn id="3" name="Sales" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Region" dataDxfId="2"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Sales" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,183 +1054,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -703,62 +1200,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,21 +1264,21 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
@@ -793,7 +1290,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2"/>
     </row>
@@ -803,15 +1300,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3"/>
     </row>
@@ -825,31 +1322,838 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>860000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>350000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <f>DAVERAGE($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>150000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <f>DCOUNT($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>590000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <f>DMIN($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>760000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>230000</v>
+      </c>
+      <c r="F7">
+        <f>DMAX($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>860000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>760000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <f>DVAR($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>250000</v>
+      </c>
+      <c r="F9">
+        <f>DSTDEV($A$1:$C$11,  "Sales", $A$15:$A$16)</f>
+        <v>70710.67811865476</v>
+      </c>
+      <c r="G9">
+        <f>SQRT(F8)</f>
+        <v>70710.67811865476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="e">
+        <f>DAVERAGE(A1:C11, 3,A14:A15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>860000</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"=Central"</f>
+        <v>=Central</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>150000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <f>DAVERAGE(A18:C28, "Sales", E18:E19)</f>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>590000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <f>DCOUNT($A$18:$C$28, "Sales", $E$18:$E$19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>230000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <f>DMIN($A$18:$C$28, "Sales", $E$18:$E$19)</f>
+        <v>760000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>760000</v>
+      </c>
+      <c r="F25">
+        <f>DMAX($A$18:$C$28, "Sales", $E$18:$E$19)</f>
+        <v>860000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>250000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26">
+        <f>DVAR($A$18:$C$28, "Sales", $E$18:$E$19)</f>
+        <v>5000000000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="F27">
+        <f>DSTDEV($A$18:$C$28, "Sales", $E$18:$E$19)</f>
+        <v>70710.67811865476</v>
+      </c>
+      <c r="G27">
+        <f>SQRT(F26)</f>
+        <v>70710.67811865476</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>430000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="str">
+        <f>"=Pomme"</f>
+        <v>=Pomme</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="str">
+        <f>"=Poire"</f>
+        <v>=Poire</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="13">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13">
+        <v>105</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="13">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13">
+        <v>96</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="13">
+        <v>13</v>
+      </c>
+      <c r="C7" s="13">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13">
+        <v>105</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13">
+        <v>75</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="13">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>76.8</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19">
+        <v>12</v>
+      </c>
+      <c r="D13" s="18">
+        <f>DAVERAGE(A4:E10, "Rendement", A1:B2)</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19">
+        <v>13</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>